--- a/state_results/Contact_Recreation/MangawheroatRaukawaFallsCamp_456ec67ceb.xlsx
+++ b/state_results/Contact_Recreation/MangawheroatRaukawaFallsCamp_456ec67ceb.xlsx
@@ -908,7 +908,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>2014 - 2018</t>
@@ -1344,7 +1348,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>2015 - 2019</t>
@@ -1780,7 +1788,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>2016 - 2020</t>
@@ -2216,7 +2228,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>2017 - 2021</t>
@@ -2652,7 +2668,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>2018 - 2022</t>

--- a/state_results/Contact_Recreation/MangawheroatRaukawaFallsCamp_456ec67ceb.xlsx
+++ b/state_results/Contact_Recreation/MangawheroatRaukawaFallsCamp_456ec67ceb.xlsx
@@ -603,10 +603,10 @@
         <v>104</v>
       </c>
       <c r="G2">
-        <v>1051.65237972915</v>
+        <v>996.580811429975</v>
       </c>
       <c r="H2">
-        <v>12108.623188495</v>
+        <v>10291.2614346222</v>
       </c>
       <c r="I2">
         <v>4889.5</v>
@@ -671,10 +671,10 @@
         <v>104</v>
       </c>
       <c r="G3">
-        <v>1051.65237972915</v>
+        <v>996.580811429975</v>
       </c>
       <c r="H3">
-        <v>12108.623188495</v>
+        <v>10291.2614346222</v>
       </c>
       <c r="I3">
         <v>4889.5</v>
@@ -739,10 +739,10 @@
         <v>104</v>
       </c>
       <c r="G4">
-        <v>1051.65237972915</v>
+        <v>996.580811429975</v>
       </c>
       <c r="H4">
-        <v>12108.623188495</v>
+        <v>10291.2614346222</v>
       </c>
       <c r="I4">
         <v>4889.5</v>
@@ -807,10 +807,10 @@
         <v>104</v>
       </c>
       <c r="G5">
-        <v>1051.65237972915</v>
+        <v>996.580811429975</v>
       </c>
       <c r="H5">
-        <v>12108.623188495</v>
+        <v>10291.2614346222</v>
       </c>
       <c r="I5">
         <v>4889.5</v>
@@ -875,10 +875,10 @@
         <v>104</v>
       </c>
       <c r="G6">
-        <v>1051.65237972915</v>
+        <v>996.580811429975</v>
       </c>
       <c r="H6">
-        <v>12108.623188495</v>
+        <v>10291.2614346222</v>
       </c>
       <c r="I6">
         <v>4889.5</v>
@@ -943,10 +943,10 @@
         <v>104</v>
       </c>
       <c r="G7">
-        <v>934.450288276206</v>
+        <v>898.815744082621</v>
       </c>
       <c r="H7">
-        <v>12108.623188495</v>
+        <v>10291.2614346222</v>
       </c>
       <c r="I7">
         <v>3650</v>
@@ -1011,10 +1011,10 @@
         <v>104</v>
       </c>
       <c r="G8">
-        <v>934.450288276206</v>
+        <v>898.815744082621</v>
       </c>
       <c r="H8">
-        <v>12108.623188495</v>
+        <v>10291.2614346222</v>
       </c>
       <c r="I8">
         <v>3650</v>
@@ -1079,10 +1079,10 @@
         <v>104</v>
       </c>
       <c r="G9">
-        <v>934.450288276206</v>
+        <v>898.815744082621</v>
       </c>
       <c r="H9">
-        <v>12108.623188495</v>
+        <v>10291.2614346222</v>
       </c>
       <c r="I9">
         <v>3650</v>
@@ -1147,10 +1147,10 @@
         <v>104</v>
       </c>
       <c r="G10">
-        <v>934.450288276206</v>
+        <v>898.815744082621</v>
       </c>
       <c r="H10">
-        <v>12108.623188495</v>
+        <v>10291.2614346222</v>
       </c>
       <c r="I10">
         <v>3650</v>
@@ -1215,10 +1215,10 @@
         <v>104</v>
       </c>
       <c r="G11">
-        <v>934.450288276206</v>
+        <v>898.815744082621</v>
       </c>
       <c r="H11">
-        <v>12108.623188495</v>
+        <v>10291.2614346222</v>
       </c>
       <c r="I11">
         <v>3650</v>
@@ -1283,10 +1283,10 @@
         <v>104</v>
       </c>
       <c r="G12">
-        <v>934.450288276206</v>
+        <v>898.815744082621</v>
       </c>
       <c r="H12">
-        <v>12108.623188495</v>
+        <v>10291.2614346222</v>
       </c>
       <c r="I12">
         <v>3650</v>
@@ -1351,10 +1351,10 @@
         <v>104</v>
       </c>
       <c r="G13">
-        <v>934.450288276206</v>
+        <v>898.815744082621</v>
       </c>
       <c r="H13">
-        <v>12108.623188495</v>
+        <v>10291.2614346222</v>
       </c>
       <c r="I13">
         <v>3650</v>
@@ -1419,10 +1419,10 @@
         <v>104</v>
       </c>
       <c r="G14">
-        <v>934.450288276206</v>
+        <v>898.815744082621</v>
       </c>
       <c r="H14">
-        <v>12108.623188495</v>
+        <v>10291.2614346222</v>
       </c>
       <c r="I14">
         <v>3650</v>
@@ -1487,10 +1487,10 @@
         <v>104</v>
       </c>
       <c r="G15">
-        <v>934.450288276206</v>
+        <v>898.815744082621</v>
       </c>
       <c r="H15">
-        <v>12108.623188495</v>
+        <v>10291.2614346222</v>
       </c>
       <c r="I15">
         <v>3650</v>
@@ -1555,10 +1555,10 @@
         <v>104</v>
       </c>
       <c r="G16">
-        <v>934.450288276206</v>
+        <v>898.815744082621</v>
       </c>
       <c r="H16">
-        <v>12108.623188495</v>
+        <v>10291.2614346222</v>
       </c>
       <c r="I16">
         <v>3650</v>
@@ -1623,10 +1623,10 @@
         <v>104</v>
       </c>
       <c r="G17">
-        <v>934.450288276206</v>
+        <v>898.815744082621</v>
       </c>
       <c r="H17">
-        <v>12108.623188495</v>
+        <v>10291.2614346222</v>
       </c>
       <c r="I17">
         <v>3650</v>
@@ -1691,10 +1691,10 @@
         <v>104</v>
       </c>
       <c r="G18">
-        <v>934.450288276206</v>
+        <v>898.815744082621</v>
       </c>
       <c r="H18">
-        <v>12108.623188495</v>
+        <v>10291.2614346222</v>
       </c>
       <c r="I18">
         <v>3650</v>
@@ -1759,10 +1759,10 @@
         <v>104</v>
       </c>
       <c r="G19">
-        <v>934.450288276206</v>
+        <v>898.815744082621</v>
       </c>
       <c r="H19">
-        <v>12108.623188495</v>
+        <v>10291.2614346222</v>
       </c>
       <c r="I19">
         <v>3650</v>
@@ -1827,10 +1827,10 @@
         <v>104</v>
       </c>
       <c r="G20">
-        <v>934.450288276206</v>
+        <v>898.815744082621</v>
       </c>
       <c r="H20">
-        <v>12108.623188495</v>
+        <v>10291.2614346222</v>
       </c>
       <c r="I20">
         <v>3650</v>
@@ -1895,10 +1895,10 @@
         <v>104</v>
       </c>
       <c r="G21">
-        <v>934.450288276206</v>
+        <v>898.815744082621</v>
       </c>
       <c r="H21">
-        <v>12108.623188495</v>
+        <v>10291.2614346222</v>
       </c>
       <c r="I21">
         <v>3650</v>
